--- a/data/2024 Imrana-food/7_days.xlsx
+++ b/data/2024 Imrana-food/7_days.xlsx
@@ -442,7 +442,7 @@
     <col min="7" max="7" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +459,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -476,9 +476,9 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4">
-        <v>1.66666666666667</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>100</v>
@@ -489,9 +489,9 @@
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4">
-        <v>3.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>100</v>
@@ -506,9 +506,9 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
         <v>98.3333333333333</v>
@@ -519,9 +519,9 @@
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4">
-        <v>33.3333333333333</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5">
         <v>96.6666666666667</v>
@@ -532,9 +532,9 @@
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="5">
         <v>93.3333333333333</v>
@@ -545,9 +545,9 @@
       <c r="F7" s="5"/>
       <c r="G7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4">
-        <v>333.333333333333</v>
+        <v>332</v>
       </c>
       <c r="B8" s="5">
         <v>88.3333333333333</v>
@@ -558,7 +558,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4">
         <v>1000</v>
       </c>
@@ -571,7 +571,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>

--- a/data/2024 Imrana-food/7_days.xlsx
+++ b/data/2024 Imrana-food/7_days.xlsx
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="5">
-        <v>3.33333333333333</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3"/>
     </row>

--- a/data/2024 Imrana-food/7_days.xlsx
+++ b/data/2024 Imrana-food/7_days.xlsx
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>95</v>
+        <v>91.6666666666667</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="6"/>
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>100</v>
+        <v>93.3333333333333</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -524,7 +524,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="5">
-        <v>96.6666666666667</v>
+        <v>95</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
@@ -550,7 +550,7 @@
         <v>332</v>
       </c>
       <c r="B8" s="5">
-        <v>88.3333333333333</v>
+        <v>63.3333333333333</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
@@ -563,7 +563,7 @@
         <v>1000</v>
       </c>
       <c r="B9" s="5">
-        <v>80</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="6"/>
